--- a/Results/results_constant_26_01.xlsx
+++ b/Results/results_constant_26_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC65DF57-C147-894A-A04F-DA9BCFC1A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3895A570-9E81-8747-AB56-0494FB0C03A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{B40920E1-230D-7E46-ACAF-19B74990E69D}"/>
   </bookViews>
